--- a/biology/Botanique/Ocotea_bullata/Ocotea_bullata.xlsx
+++ b/biology/Botanique/Ocotea_bullata/Ocotea_bullata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocotea bullata ou l’arbre malodorant (Afrikaans : Stinkhout, Xhosa : Umhlungulu, Zoulou: Umnukane, Anglais: stinkwood) est une espèce de plantes à fleurs de la famille des Lauraceae, originaire d'Afrique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre.
 </t>
@@ -542,10 +556,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois d'Ocotea bullata est qualifié de lourd (densité à l'état vert: 1 090 g/m3, densité à l'état sec, dry weight: 755 kg/m3) stable et durable.
-Le bois d'Ocotea bullata convient aux meubles de grande valeur, aux armoires, aux lambris, aux objets décoratifs, à la sculpture et au tournage. Dans le passé, il a été utilisé pour la construction de wagons et de bateaux, les traverses de chemin de fer, la menuiserie et les outils agricoles. Le brick de George Rex, le « Knysna », a été construit presque entièrement en Stinkwood[2] et le slipway lui-même était de la même essence[3] .
+Le bois d'Ocotea bullata convient aux meubles de grande valeur, aux armoires, aux lambris, aux objets décoratifs, à la sculpture et au tournage. Dans le passé, il a été utilisé pour la construction de wagons et de bateaux, les traverses de chemin de fer, la menuiserie et les outils agricoles. Le brick de George Rex, le « Knysna », a été construit presque entièrement en Stinkwood et le slipway lui-même était de la même essence .
 </t>
         </is>
       </c>
